--- a/biology/Zoologie/Eryphanis_automedon/Eryphanis_automedon.xlsx
+++ b/biology/Zoologie/Eryphanis_automedon/Eryphanis_automedon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eryphanis automedon est une espèce de papillon, de la famille des Nymphalidae, sous-famille des Morphinae, tribu des Brassolini, sous-tribu des Brassolina. C'est l'espèce type pour le genre.
 </t>
@@ -511,16 +523,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Eryphanis automedon a été décrite par l'entomologiste hollandais Pieter Cramer en 1775, sous le nom initial de Papilio automedon[1]. La localité type est le Suriname.
-Synonymie
-Papilio automedon (Cramer, 1775) Protonyme
-Papilio polyxena (Meerburgh, 1780)
-Moera automedaena (Hübner, 1819) [2]
-Eryphanis polyxena (Brown &amp; Mielke, 1967)[3]
-Nom vernaculaire
-Eryphanis automedon se nomme Papillon chouette bleu en français et Automedon Giant-Owl en anglais[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Eryphanis automedon a été décrite par l'entomologiste hollandais Pieter Cramer en 1775, sous le nom initial de Papilio automedon. La localité type est le Suriname.
 </t>
         </is>
       </c>
@@ -546,64 +553,181 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Papilio automedon (Cramer, 1775) Protonyme
+Papilio polyxena (Meerburgh, 1780)
+Moera automedaena (Hübner, 1819) 
+Eryphanis polyxena (Brown &amp; Mielke, 1967)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eryphanis_automedon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eryphanis_automedon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eryphanis automedon se nomme Papillon chouette bleu en français et Automedon Giant-Owl en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eryphanis_automedon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eryphanis_automedon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Groupe de l'automedon
-Eryphanis automedon sert de chef de file à un groupe de papillon qui porte son nom :
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Groupe de l'automedon</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Eryphanis automedon sert de chef de file à un groupe de papillon qui porte son nom :
 Eryphanis aesacus
 Eryphanis automedon
 Eryphanis bubocula
-Eryphanis lycomedon
-Liste des sous espèces
-Eryphanis automedon automedon (Cramer, 1775)
+Eryphanis lycomedon</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eryphanis_automedon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eryphanis_automedon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des sous espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Eryphanis automedon automedon (Cramer, 1775)
 Eryphanis automedon lycomedon (C. &amp; R. Felder, 1862)
 Synonymie pour cette sous-espèce :
 Pavonia automedon lycomedon (C. &amp; R. Felder, 1862)
-Eryphanis polyxena lycomedon f. costaricensis (Strand, 1916)[5]
+Eryphanis polyxena lycomedon f. costaricensis (Strand, 1916)
 Eryphanis automedon amphimedon (C. &amp; R. Felder, 1867)
 Synonymie pour cette sous-espèce :
 Pavonia automedon amphimedon (C. &amp; R. Felder, 1867)
-Eryphanis wardii (Boisduval, 1870)[6]
-Eryphanis wardi  (Godman &amp; Salvin, [1881])[7]
+Eryphanis wardii (Boisduval, 1870)
+Eryphanis wardi  (Godman &amp; Salvin, )
 Eryphanis automedon tristis Staudinger, 1887
 Eryphanis automedon novicia Stichel, 1904
 Eryphanis automedon cheiremon Fruhstorfer, 1912
 Eryphanis automedon spintharus Fruhstorfer, 1912
 Synonymie pour cette sous-espèce :
-Eryphanis polyxena spintharus Fruhstorfer, 1912[8]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eryphanis_automedon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eryphanis_automedon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Eryphanis polyxena spintharus Fruhstorfer, 1912</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eryphanis_automedon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eryphanis_automedon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eryphanis automedon est un grand papillon d'une envergure d'environ 113 mm aux ailes antérieures à bord costal bombé et au bord externe concave[9]. Alors que le dessus est marron avec de larges plages bleu violet ne laissant aux ailes antérieures qu'une bordure externe marron, le revers est beige.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eryphanis automedon est un grand papillon d'une envergure d'environ 113 mm aux ailes antérieures à bord costal bombé et au bord externe concave. Alors que le dessus est marron avec de larges plages bleu violet ne laissant aux ailes antérieures qu'une bordure externe marron, le revers est beige.
 			♂ face dorsale - MHNT
 			♂face ventrale- MHNT
 			♀ face dorsale - MHNT
@@ -613,68 +737,142 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Eryphanis_automedon</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eryphanis_automedon</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eryphanis_automedon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eryphanis_automedon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les larves se nourrissent sur les plantes du genre Bambusa [10]; Bambusa arundinacea et Saccharum spontaneum  pour Eryphanis polyxena lycomedon [11].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les larves se nourrissent sur les plantes du genre Bambusa ; Bambusa arundinacea et Saccharum spontaneum  pour Eryphanis polyxena lycomedon .
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Eryphanis_automedon</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eryphanis_automedon</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eryphanis_automedon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eryphanis_automedon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Amérique centrale et Amérique du Sud, au Guatemala, au Costa Rica, au Suriname, en Guyane, en Colombie, en Bolivie, en Équateur, au Pérou et au Brésil[11],[12].
-Biotope
-Il réside dans la forêt sombre.
-Protection
-Pas de statut de protection particulier
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Amérique centrale et Amérique du Sud, au Guatemala, au Costa Rica, au Suriname, en Guyane, en Colombie, en Bolivie, en Équateur, au Pérou et au Brésil,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eryphanis_automedon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eryphanis_automedon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt sombre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Eryphanis_automedon</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eryphanis_automedon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 </t>
         </is>
       </c>
